--- a/SWTX.xlsx
+++ b/SWTX.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA000D4B-76F2-47C7-942D-E7EB5D6C9C16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC1D91AB-6B27-4CE7-8147-FFA2E1968D71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="75060" yWindow="3945" windowWidth="28920" windowHeight="16860" activeTab="1" xr2:uid="{F88A0A03-F12B-4F8A-A8FE-FFA0575DD21C}"/>
+    <workbookView xWindow="-24420" yWindow="1530" windowWidth="21720" windowHeight="17280" activeTab="1" xr2:uid="{F88A0A03-F12B-4F8A-A8FE-FFA0575DD21C}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
-    <sheet name="nirogacestat" sheetId="2" r:id="rId2"/>
+    <sheet name="Model" sheetId="3" r:id="rId2"/>
+    <sheet name="nirogacestat" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="58">
   <si>
     <t>Main</t>
   </si>
@@ -60,9 +61,6 @@
     <t>EV</t>
   </si>
   <si>
-    <t>Q222</t>
-  </si>
-  <si>
     <t>Brand</t>
   </si>
   <si>
@@ -78,9 +76,6 @@
     <t>nirogacestat</t>
   </si>
   <si>
-    <t>mirdametinib</t>
-  </si>
-  <si>
     <t>MOA</t>
   </si>
   <si>
@@ -90,9 +85,6 @@
     <t>MapKure</t>
   </si>
   <si>
-    <t>BGB-3245</t>
-  </si>
-  <si>
     <t>BRAF</t>
   </si>
   <si>
@@ -145,13 +137,91 @@
   </si>
   <si>
     <t xml:space="preserve">  somatic CTNNB1, germline APC mutations. Often surgical approach to treatment.</t>
+  </si>
+  <si>
+    <t>Ogsiveo (nirogacestat)</t>
+  </si>
+  <si>
+    <t>Revenue</t>
+  </si>
+  <si>
+    <t>Q123</t>
+  </si>
+  <si>
+    <t>Q223</t>
+  </si>
+  <si>
+    <t>Q323</t>
+  </si>
+  <si>
+    <t>Q423</t>
+  </si>
+  <si>
+    <t>Q124</t>
+  </si>
+  <si>
+    <t>Q224</t>
+  </si>
+  <si>
+    <t>Q324</t>
+  </si>
+  <si>
+    <t>Q424</t>
+  </si>
+  <si>
+    <t>Q125</t>
+  </si>
+  <si>
+    <t>Q225</t>
+  </si>
+  <si>
+    <t>Q325</t>
+  </si>
+  <si>
+    <t>Q425</t>
+  </si>
+  <si>
+    <t>Gomekli (mirdametinib)</t>
+  </si>
+  <si>
+    <t>BGB-3245 (brimarafenib)</t>
+  </si>
+  <si>
+    <t>SW-682</t>
+  </si>
+  <si>
+    <t>TEAD</t>
+  </si>
+  <si>
+    <t>Approved</t>
+  </si>
+  <si>
+    <t>NPV</t>
+  </si>
+  <si>
+    <t>Ogsiveo</t>
+  </si>
+  <si>
+    <t>Gomekli</t>
+  </si>
+  <si>
+    <t>COGS</t>
+  </si>
+  <si>
+    <t>Gross Profit</t>
+  </si>
+  <si>
+    <t>SG&amp;A</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="#,##0.0"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -170,6 +240,13 @@
       <u/>
       <sz val="10"/>
       <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -281,7 +358,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -297,7 +374,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -312,13 +389,32 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{0DB1B1DE-13F9-44B8-9004-0B4096F5F81D}"/>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -331,9 +427,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -371,7 +467,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -477,7 +573,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -619,7 +715,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -627,165 +723,178 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F65440B0-BC1E-4307-BC83-293D958300DC}">
-  <dimension ref="B2:K10"/>
+  <dimension ref="B2:L10"/>
   <sheetViews>
-    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.42578125" customWidth="1"/>
-    <col min="2" max="2" width="13.28515625" customWidth="1"/>
+    <col min="2" max="2" width="21.28515625" customWidth="1"/>
     <col min="3" max="3" width="12.7109375" customWidth="1"/>
-    <col min="5" max="5" width="11.140625" customWidth="1"/>
+    <col min="5" max="6" width="11.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B2" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="I2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="1">
-        <v>27.5</v>
-      </c>
-    </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K2" s="1">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B3" s="15" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="F3" s="9"/>
-      <c r="G3" s="10"/>
-      <c r="I3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="18">
+        <v>45386</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="9"/>
+      <c r="H3" s="10"/>
+      <c r="J3" t="s">
         <v>2</v>
       </c>
-      <c r="J3" s="3">
-        <f>49.442662+8.62552</f>
-        <v>58.068182</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K3" s="3">
+        <v>74.132811000000004</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B4" s="4" t="s">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" s="9"/>
+        <v>17</v>
+      </c>
+      <c r="E4" s="18">
+        <v>45699</v>
+      </c>
       <c r="F4" s="9"/>
-      <c r="G4" s="10"/>
-      <c r="I4" t="s">
+      <c r="G4" s="9"/>
+      <c r="H4" s="10"/>
+      <c r="J4" t="s">
         <v>3</v>
       </c>
-      <c r="J4" s="3">
-        <f>+J2*J3</f>
-        <v>1596.8750050000001</v>
-      </c>
-    </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K4" s="3">
+        <f>+K2*K3</f>
+        <v>3632.5077390000001</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B5" s="4" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="C5" s="9"/>
       <c r="D5" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" s="9"/>
-      <c r="G5" s="10"/>
-      <c r="I5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="9"/>
+      <c r="H5" s="10"/>
+      <c r="J5" t="s">
         <v>4</v>
       </c>
-      <c r="J5" s="3">
-        <f>69.571+264.97+6.358+0.55+225</f>
-        <v>566.44900000000007</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B6" s="4"/>
+      <c r="K5" s="3">
+        <v>461.9</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B6" s="4" t="s">
+        <v>49</v>
+      </c>
       <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
+      <c r="D6" s="9" t="s">
+        <v>50</v>
+      </c>
       <c r="E6" s="9"/>
       <c r="F6" s="9"/>
-      <c r="G6" s="10"/>
-      <c r="I6" t="s">
+      <c r="G6" s="9"/>
+      <c r="H6" s="10"/>
+      <c r="J6" t="s">
         <v>5</v>
       </c>
-      <c r="J6" s="3">
+      <c r="K6" s="3">
         <v>0</v>
       </c>
-      <c r="K6" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L6" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B7" s="4"/>
       <c r="C7" s="9"/>
       <c r="D7" s="9"/>
       <c r="E7" s="9"/>
       <c r="F7" s="9"/>
-      <c r="G7" s="10"/>
-      <c r="I7" t="s">
+      <c r="G7" s="9"/>
+      <c r="H7" s="10"/>
+      <c r="J7" t="s">
         <v>6</v>
       </c>
-      <c r="J7" s="3">
-        <f>+J4-J5+J6</f>
-        <v>1030.426005</v>
-      </c>
-    </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K7" s="3">
+        <f>+K4-K5+K6</f>
+        <v>3170.607739</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B8" s="5"/>
       <c r="C8" s="11"/>
       <c r="D8" s="11"/>
       <c r="E8" s="11"/>
       <c r="F8" s="11"/>
-      <c r="G8" s="12"/>
-    </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="I9" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="G8" s="11"/>
+      <c r="H8" s="12"/>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="J9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -797,10 +906,448 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{518CCC58-C8EB-432C-BAC4-B6A5194FFDC9}">
+  <dimension ref="A1:Y21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="Q3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="X7" sqref="X7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" customWidth="1"/>
+    <col min="3" max="17" width="9.140625" style="2"/>
+    <col min="18" max="18" width="9.7109375" style="2" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A1" s="14" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="C2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="P2" s="2">
+        <v>2023</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>2024</v>
+      </c>
+      <c r="R2" s="2">
+        <v>2025</v>
+      </c>
+      <c r="S2">
+        <f>+R2+1</f>
+        <v>2026</v>
+      </c>
+      <c r="T2">
+        <f t="shared" ref="T2:W2" si="0">+S2+1</f>
+        <v>2027</v>
+      </c>
+      <c r="U2">
+        <f t="shared" si="0"/>
+        <v>2028</v>
+      </c>
+      <c r="V2">
+        <f t="shared" si="0"/>
+        <v>2029</v>
+      </c>
+      <c r="W2">
+        <f t="shared" si="0"/>
+        <v>2030</v>
+      </c>
+      <c r="X2">
+        <f t="shared" ref="X2" si="1">+W2+1</f>
+        <v>2031</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17">
+        <v>5.4</v>
+      </c>
+      <c r="G3" s="17">
+        <v>21</v>
+      </c>
+      <c r="H3" s="17">
+        <v>40.200000000000003</v>
+      </c>
+      <c r="I3" s="17">
+        <v>49.3</v>
+      </c>
+      <c r="J3" s="17">
+        <v>61.5</v>
+      </c>
+      <c r="K3" s="17"/>
+      <c r="L3" s="17"/>
+      <c r="M3" s="17"/>
+      <c r="N3" s="17"/>
+      <c r="O3" s="17"/>
+      <c r="P3" s="17"/>
+      <c r="Q3" s="17">
+        <f>SUM(G3:J3)</f>
+        <v>172</v>
+      </c>
+      <c r="R3" s="17">
+        <f>+Q3*2</f>
+        <v>344</v>
+      </c>
+      <c r="S3" s="16">
+        <f>+R3*1.5</f>
+        <v>516</v>
+      </c>
+      <c r="T3" s="16">
+        <f>+S3*1.2</f>
+        <v>619.19999999999993</v>
+      </c>
+      <c r="U3" s="16">
+        <f>+T3*1.1</f>
+        <v>681.12</v>
+      </c>
+      <c r="V3" s="16">
+        <f>+U3*1.1</f>
+        <v>749.23200000000008</v>
+      </c>
+      <c r="W3" s="16">
+        <f>+V3*1.1</f>
+        <v>824.15520000000015</v>
+      </c>
+      <c r="X3" s="16">
+        <f>+W3*0.1</f>
+        <v>82.415520000000015</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>54</v>
+      </c>
+      <c r="R4" s="17">
+        <f>+Q3</f>
+        <v>172</v>
+      </c>
+      <c r="S4" s="17">
+        <f>+R4*2</f>
+        <v>344</v>
+      </c>
+      <c r="T4" s="16">
+        <f>+S4*1.5</f>
+        <v>516</v>
+      </c>
+      <c r="U4" s="16">
+        <f>+T4*1.2</f>
+        <v>619.19999999999993</v>
+      </c>
+      <c r="V4" s="16">
+        <f>+U4*1.1</f>
+        <v>681.12</v>
+      </c>
+      <c r="W4" s="16">
+        <f>+V4*1.1</f>
+        <v>749.23200000000008</v>
+      </c>
+      <c r="X4" s="16">
+        <f t="shared" ref="X3:X4" si="2">+W4*1.1</f>
+        <v>824.15520000000015</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="21"/>
+      <c r="K5" s="21"/>
+      <c r="L5" s="21"/>
+      <c r="M5" s="21"/>
+      <c r="N5" s="21"/>
+      <c r="O5" s="21"/>
+      <c r="P5" s="21"/>
+      <c r="Q5" s="22">
+        <f>+Q3+Q4</f>
+        <v>172</v>
+      </c>
+      <c r="R5" s="22">
+        <f>+R3+R4</f>
+        <v>516</v>
+      </c>
+      <c r="S5" s="22">
+        <f>+S3+S4</f>
+        <v>860</v>
+      </c>
+      <c r="T5" s="22">
+        <f>+T3+T4</f>
+        <v>1135.1999999999998</v>
+      </c>
+      <c r="U5" s="22">
+        <f>+U3+U4</f>
+        <v>1300.32</v>
+      </c>
+      <c r="V5" s="22">
+        <f>+V3+V4</f>
+        <v>1430.3520000000001</v>
+      </c>
+      <c r="W5" s="22">
+        <f>+W3+W4</f>
+        <v>1573.3872000000001</v>
+      </c>
+      <c r="X5" s="22">
+        <f t="shared" ref="X5" si="3">+X3+X4</f>
+        <v>906.57072000000016</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q7" s="19">
+        <f>+Q5*0.9</f>
+        <v>154.80000000000001</v>
+      </c>
+      <c r="R7" s="19">
+        <f>+R5*0.9</f>
+        <v>464.40000000000003</v>
+      </c>
+      <c r="S7" s="19">
+        <f t="shared" ref="S7:W7" si="4">+S5*0.9</f>
+        <v>774</v>
+      </c>
+      <c r="T7" s="19">
+        <f t="shared" si="4"/>
+        <v>1021.6799999999998</v>
+      </c>
+      <c r="U7" s="19">
+        <f t="shared" si="4"/>
+        <v>1170.288</v>
+      </c>
+      <c r="V7" s="19">
+        <f t="shared" si="4"/>
+        <v>1287.3168000000001</v>
+      </c>
+      <c r="W7" s="19">
+        <f t="shared" si="4"/>
+        <v>1416.0484800000002</v>
+      </c>
+      <c r="X7" s="19">
+        <f t="shared" ref="X7" si="5">+X5*0.9</f>
+        <v>815.91364800000019</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q8" s="19">
+        <f>+Q5*0.2</f>
+        <v>34.4</v>
+      </c>
+      <c r="R8" s="19">
+        <f t="shared" ref="R8:X8" si="6">+R5*0.2</f>
+        <v>103.2</v>
+      </c>
+      <c r="S8" s="19">
+        <f t="shared" si="6"/>
+        <v>172</v>
+      </c>
+      <c r="T8" s="19">
+        <f t="shared" si="6"/>
+        <v>227.03999999999996</v>
+      </c>
+      <c r="U8" s="19">
+        <f t="shared" si="6"/>
+        <v>260.06400000000002</v>
+      </c>
+      <c r="V8" s="19">
+        <f t="shared" si="6"/>
+        <v>286.07040000000001</v>
+      </c>
+      <c r="W8" s="19">
+        <f t="shared" si="6"/>
+        <v>314.67744000000005</v>
+      </c>
+      <c r="X8" s="19">
+        <f t="shared" si="6"/>
+        <v>181.31414400000006</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Q9" s="19">
+        <f>+Q7-Q8</f>
+        <v>120.4</v>
+      </c>
+      <c r="R9" s="19">
+        <f t="shared" ref="R9:X9" si="7">+R7-R8</f>
+        <v>361.20000000000005</v>
+      </c>
+      <c r="S9" s="19">
+        <f t="shared" si="7"/>
+        <v>602</v>
+      </c>
+      <c r="T9" s="19">
+        <f t="shared" si="7"/>
+        <v>794.63999999999987</v>
+      </c>
+      <c r="U9" s="19">
+        <f t="shared" si="7"/>
+        <v>910.22399999999993</v>
+      </c>
+      <c r="V9" s="19">
+        <f t="shared" si="7"/>
+        <v>1001.2464</v>
+      </c>
+      <c r="W9" s="19">
+        <f t="shared" si="7"/>
+        <v>1101.37104</v>
+      </c>
+      <c r="X9" s="19">
+        <f t="shared" si="7"/>
+        <v>634.59950400000014</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Q10" s="19">
+        <f>+Q9*0.2</f>
+        <v>24.080000000000002</v>
+      </c>
+      <c r="R10" s="19">
+        <f>+R9*0.2</f>
+        <v>72.240000000000009</v>
+      </c>
+      <c r="S10" s="19">
+        <f t="shared" ref="R10:X10" si="8">+S9*0.2</f>
+        <v>120.4</v>
+      </c>
+      <c r="T10" s="19">
+        <f t="shared" si="8"/>
+        <v>158.928</v>
+      </c>
+      <c r="U10" s="19">
+        <f t="shared" si="8"/>
+        <v>182.04480000000001</v>
+      </c>
+      <c r="V10" s="19">
+        <f t="shared" si="8"/>
+        <v>200.24928</v>
+      </c>
+      <c r="W10" s="19">
+        <f t="shared" si="8"/>
+        <v>220.27420800000002</v>
+      </c>
+      <c r="X10" s="19">
+        <f t="shared" si="8"/>
+        <v>126.91990080000004</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Q11" s="19">
+        <f>+Q9-Q10</f>
+        <v>96.320000000000007</v>
+      </c>
+      <c r="R11" s="19">
+        <f t="shared" ref="R11:X11" si="9">+R9-R10</f>
+        <v>288.96000000000004</v>
+      </c>
+      <c r="S11" s="19">
+        <f t="shared" si="9"/>
+        <v>481.6</v>
+      </c>
+      <c r="T11" s="19">
+        <f t="shared" si="9"/>
+        <v>635.71199999999988</v>
+      </c>
+      <c r="U11" s="19">
+        <f t="shared" si="9"/>
+        <v>728.17919999999992</v>
+      </c>
+      <c r="V11" s="19">
+        <f t="shared" si="9"/>
+        <v>800.99712</v>
+      </c>
+      <c r="W11" s="19">
+        <f t="shared" si="9"/>
+        <v>881.09683199999995</v>
+      </c>
+      <c r="X11" s="19">
+        <f t="shared" si="9"/>
+        <v>507.67960320000009</v>
+      </c>
+    </row>
+    <row r="21" spans="24:25" x14ac:dyDescent="0.2">
+      <c r="X21" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y21" s="19">
+        <f>NPV(8%,R11:X11)</f>
+        <v>3116.9438781531931</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{94A09D69-84CC-40C9-9E2B-6EC45743FAFB}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F71161B-1BA8-4337-A029-BAE9B069D9CC}">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
@@ -817,58 +1364,63 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C5" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C7" s="13" t="s">
-        <v>26</v>
+      <c r="B7" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C10" s="13" t="s">
-        <v>31</v>
+      <c r="C8" s="13" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C9" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C11" t="s">
-        <v>32</v>
+      <c r="C11" s="13" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C12" t="s">
-        <v>33</v>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C13" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
